--- a/input/settings.xlsx
+++ b/input/settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomon\Documents\Python\bokeh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomon\Documents\Python\bokeh\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE35A3-2F7A-409B-B7A9-7777717F9EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83DD26-850D-41C0-B25A-F6A2C8090D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="2130" windowWidth="29235" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="1935" windowWidth="29235" windowHeight="18105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="period" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>test3</t>
   </si>
   <si>
-    <t>test4</t>
-  </si>
-  <si>
     <t>test5</t>
   </si>
   <si>
@@ -333,6 +330,10 @@
   </si>
   <si>
     <t>purple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test4kkkkk</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -670,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -725,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE5C0C-8AEE-42E0-821C-86CF7E6E257F}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -749,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -766,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -775,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -786,13 +787,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -803,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -820,19 +821,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -843,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
         <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -863,19 +864,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -886,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -895,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -929,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -946,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -957,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -968,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -979,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -990,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1001,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1012,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1023,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1072,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1086,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1097,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1111,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1122,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1133,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1144,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>

--- a/input/settings.xlsx
+++ b/input/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomon\Documents\Python\bokeh\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83DD26-850D-41C0-B25A-F6A2C8090D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C248CE-FD9E-4783-96A6-9D5FB4C0459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1935" windowWidth="29235" windowHeight="18105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="1965" windowWidth="24090" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="period" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>AAA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1s</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -336,11 +332,28 @@
     <t>test4kkkkk</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時差（UTC基準）</t>
+    <rPh sb="0" eb="2">
+      <t>ジサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -386,9 +399,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -669,20 +683,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,10 +711,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -707,13 +725,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45532.420138888891</v>
+        <v>44071.420138888891</v>
       </c>
       <c r="D2" s="1">
-        <v>45532.425000000003</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+        <v>45533.425000000003</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FE5C0C-8AEE-42E0-821C-86CF7E6E257F}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -738,25 +759,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -767,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -787,13 +808,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -804,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -821,19 +842,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -844,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -864,19 +885,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -887,19 +908,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -924,19 +945,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -947,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -958,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -969,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -980,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -991,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1002,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1013,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1024,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1045,16 +1066,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1062,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1073,13 +1094,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1087,10 +1108,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1098,13 +1119,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1112,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1123,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1134,10 +1155,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1145,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/input/settings.xlsx
+++ b/input/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomon\Documents\Python\bokeh\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C248CE-FD9E-4783-96A6-9D5FB4C0459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C35AA3-C925-4090-A71A-387DD05BA905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1965" windowWidth="24090" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="30" windowWidth="17205" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="period" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -333,17 +333,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>時差（UTC基準）</t>
-    <rPh sb="0" eb="2">
-      <t>ジサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キジュン</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AAA/の/グラフ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -352,7 +354,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -402,7 +404,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -683,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -695,9 +697,10 @@
     <col min="3" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,13 +714,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -725,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>44071.420138888891</v>
+        <v>45533.420138888891</v>
       </c>
       <c r="D2" s="1">
         <v>45533.425000000003</v>
@@ -734,7 +740,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
